--- a/knowledge-center/Reference TANF & SSP WPR & TL Feedback Reports.xlsx
+++ b/knowledge-center/Reference TANF & SSP WPR & TL Feedback Reports.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29728"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hhsgov-my.sharepoint.com/personal/yun_song_acf_hhs_gov/Documents/Documents/PR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3C575B1-727F-4E17-B482-E88569739B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD6F4470-9F00-43D6-87CF-B0FAA6EEEA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7827,8 +7827,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9F80BF35C5C40419CB0899C34EDCF7D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0ad2f5140b36ed19d8ca0706ec53391d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9eaf715c-9c82-42ca-98d9-220ae20560c2" xmlns:ns3="950ef47f-4b71-4db6-a5e7-27137d313915" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b981160422772e641471dd46bcf534aa" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9eaf715c-9c82-42ca-98d9-220ae20560c2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="950ef47f-4b71-4db6-a5e7-27137d313915">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9F80BF35C5C40419CB0899C34EDCF7D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15722ed76ccbde7256eeb804f6fd52d8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9eaf715c-9c82-42ca-98d9-220ae20560c2" xmlns:ns3="950ef47f-4b71-4db6-a5e7-27137d313915" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a8188ae6d014953ae15a8015499b11ef" ns2:_="" ns3:_="">
     <xsd:import namespace="9eaf715c-9c82-42ca-98d9-220ae20560c2"/>
     <xsd:import namespace="950ef47f-4b71-4db6-a5e7-27137d313915"/>
     <xsd:element name="properties">
@@ -8055,7 +8066,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8064,27 +8075,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9eaf715c-9c82-42ca-98d9-220ae20560c2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="950ef47f-4b71-4db6-a5e7-27137d313915">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D835F615-2251-4298-8433-2230927A7279}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E919274E-B1E5-44E4-B80C-4EE7385A1ADE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11FA57A7-F82A-464A-A112-5685B0F11090}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C970BC8-C7D0-4CA8-B93E-0D34DDF640B1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E919274E-B1E5-44E4-B80C-4EE7385A1ADE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11FA57A7-F82A-464A-A112-5685B0F11090}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/knowledge-center/Reference TANF & SSP WPR & TL Feedback Reports.xlsx
+++ b/knowledge-center/Reference TANF & SSP WPR & TL Feedback Reports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29728"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29721"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hhsgov-my.sharepoint.com/personal/yun_song_acf_hhs_gov/Documents/Documents/PR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD6F4470-9F00-43D6-87CF-B0FAA6EEEA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CE5E5E3-F506-4D03-B1AE-60BD949D4CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,18 @@
     <sheet name="WPR_errorflag_explanations" sheetId="16" r:id="rId4"/>
     <sheet name="WPR_Report_3.0 Zero_payment" sheetId="18" r:id="rId5"/>
     <sheet name="WPR_Report_3.1 EA or 3.2 HL" sheetId="4" r:id="rId6"/>
-    <sheet name="WPR_Report_3.4 Disregarded_part" sheetId="8" r:id="rId7"/>
-    <sheet name="WPR_Report_3.3 work hours&gt;80" sheetId="6" r:id="rId8"/>
+    <sheet name="WPR_Report_3.3 work hours&gt;80" sheetId="6" r:id="rId7"/>
+    <sheet name="WPR_Report_3.4 Disregarded_part" sheetId="8" r:id="rId8"/>
     <sheet name="WPR_Report_4.NumDen" sheetId="9" r:id="rId9"/>
-    <sheet name="Combined_WPR_Report_1_Num" sheetId="17" r:id="rId10"/>
-    <sheet name="Combined_WPR_Report_2.WPR" sheetId="11" r:id="rId11"/>
-    <sheet name="TL_Report_1_Months Distribution" sheetId="12" r:id="rId12"/>
-    <sheet name="TL_Report_2_exemptions" sheetId="13" r:id="rId13"/>
-    <sheet name="TL_Report_3_Errorflags" sheetId="14" r:id="rId14"/>
-    <sheet name="TL_Report_4_Over60Months" sheetId="15" r:id="rId15"/>
+    <sheet name="SSP cases&lt;$35" sheetId="22" r:id="rId10"/>
+    <sheet name="Combined_WPR_Report_1_Num" sheetId="17" r:id="rId11"/>
+    <sheet name="Combined_WPR_Report_2.WPR" sheetId="11" r:id="rId12"/>
+    <sheet name="TL_Report_1_Months Distribution" sheetId="12" r:id="rId13"/>
+    <sheet name="TL_Report_2_exemptions" sheetId="13" r:id="rId14"/>
+    <sheet name="TL_Report_3_Errorflags" sheetId="14" r:id="rId15"/>
+    <sheet name="TL_Report_4_Over60Months" sheetId="15" r:id="rId16"/>
+    <sheet name="invalid_SSNs" sheetId="20" r:id="rId17"/>
+    <sheet name="Invalid_age" sheetId="21" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="IDX" localSheetId="8">WPR_Report_4.NumDen!$B$9</definedName>
@@ -52,26 +55,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={5A30A03B-C557-4A6E-B97B-F8361FD58355}</author>
-  </authors>
-  <commentList>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{5A30A03B-C557-4A6E-B97B-F8361FD58355}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    After fixed the wrong coding</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="402">
   <si>
     <t>TANF&amp;SSP WPR &amp;TL Monthly Reports</t>
   </si>
@@ -118,6 +103,9 @@
     <t>4.  numerator/denominator and rate</t>
   </si>
   <si>
+    <t>5.  number of cases each month that with  cash_assistance less than $35</t>
+  </si>
+  <si>
     <t>TANF&amp;SSP Combined</t>
   </si>
   <si>
@@ -143,6 +131,15 @@
   </si>
   <si>
     <t xml:space="preserve"> 4. Number of Cases with over 60 months</t>
+  </si>
+  <si>
+    <t>extras</t>
+  </si>
+  <si>
+    <t>1. invalid_SSNs</t>
+  </si>
+  <si>
+    <t>2.invald DOBs or age inappropriations</t>
   </si>
   <si>
     <t xml:space="preserve">Name </t>
@@ -809,6 +806,60 @@
     <t>P2 - Parent 2 in 2P family</t>
   </si>
   <si>
+    <t>Table 3.3</t>
+  </si>
+  <si>
+    <t>total work hours over 80/week</t>
+  </si>
+  <si>
+    <t>unsub employ</t>
+  </si>
+  <si>
+    <t>Unsubsidized Employment</t>
+  </si>
+  <si>
+    <t>sub.priv.employ</t>
+  </si>
+  <si>
+    <t>Subsidized Private-Sector Employment</t>
+  </si>
+  <si>
+    <t>sub.pub.employ</t>
+  </si>
+  <si>
+    <t>Subsidized Public-Sector Employment</t>
+  </si>
+  <si>
+    <t>work exper</t>
+  </si>
+  <si>
+    <t>ojt</t>
+  </si>
+  <si>
+    <t>On-the-Job Training</t>
+  </si>
+  <si>
+    <t>comm.serv</t>
+  </si>
+  <si>
+    <t>voc ed</t>
+  </si>
+  <si>
+    <t>ed.no.hs</t>
+  </si>
+  <si>
+    <t>other activ</t>
+  </si>
+  <si>
+    <t>Other Work Activities</t>
+  </si>
+  <si>
+    <t>P1 hours - Parent 1's hours in 2P family</t>
+  </si>
+  <si>
+    <t>P2 hours - Parent 2's hours in 2P family</t>
+  </si>
+  <si>
     <t>Table 3.4. Cases that WPS coded as disregarded</t>
   </si>
   <si>
@@ -864,60 +915,6 @@
   </si>
   <si>
     <t>1 means disregarded but met 2P WPR</t>
-  </si>
-  <si>
-    <t>Table 3.3</t>
-  </si>
-  <si>
-    <t>total work hours over 80/week</t>
-  </si>
-  <si>
-    <t>unsub employ</t>
-  </si>
-  <si>
-    <t>Unsubsidized Employment</t>
-  </si>
-  <si>
-    <t>sub.priv.employ</t>
-  </si>
-  <si>
-    <t>Subsidized Private-Sector Employment</t>
-  </si>
-  <si>
-    <t>sub.pub.employ</t>
-  </si>
-  <si>
-    <t>Subsidized Public-Sector Employment</t>
-  </si>
-  <si>
-    <t>work exper</t>
-  </si>
-  <si>
-    <t>ojt</t>
-  </si>
-  <si>
-    <t>On-the-Job Training</t>
-  </si>
-  <si>
-    <t>comm.serv</t>
-  </si>
-  <si>
-    <t>voc ed</t>
-  </si>
-  <si>
-    <t>ed.no.hs</t>
-  </si>
-  <si>
-    <t>other activ</t>
-  </si>
-  <si>
-    <t>Other Work Activities</t>
-  </si>
-  <si>
-    <t>P1 hours - Parent 1's hours in 2P family</t>
-  </si>
-  <si>
-    <t>P2 hours - Parent 2's hours in 2P family</t>
   </si>
   <si>
     <t>TANFXX_NUMDEN</t>
@@ -1028,6 +1025,18 @@
     <t>TPFamiliy_rate</t>
   </si>
   <si>
+    <t>SSP families with cash assistance less than $35</t>
+  </si>
+  <si>
+    <t>State: xxxxx in FY2026</t>
+  </si>
+  <si>
+    <t>RPT_MONTH_YEAR</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
     <t>CMBXX_NUMDEN</t>
   </si>
   <si>
@@ -1272,9 +1281,6 @@
   </si>
   <si>
     <t>Table 3 -TL Errorflags</t>
-  </si>
-  <si>
-    <t>RPT_MONTH_YEAR</t>
   </si>
   <si>
     <t>type_fam</t>
@@ -1439,6 +1445,69 @@
   </si>
   <si>
     <t xml:space="preserve"> TLEX6-TLEX9</t>
+  </si>
+  <si>
+    <t>TANF adult recipients with invalid SSN</t>
+  </si>
+  <si>
+    <t>TANF Child recipients with invalid SSN</t>
+  </si>
+  <si>
+    <t>State: xxxxxxxxx in FY2025</t>
+  </si>
+  <si>
+    <t>CASE_NUMBER</t>
+  </si>
+  <si>
+    <t>SSN</t>
+  </si>
+  <si>
+    <t>DATE_OF_BIRTH</t>
+  </si>
+  <si>
+    <t>000000000</t>
+  </si>
+  <si>
+    <t>98T456789</t>
+  </si>
+  <si>
+    <t>999999999</t>
+  </si>
+  <si>
+    <t>000230000</t>
+  </si>
+  <si>
+    <t>666006789</t>
+  </si>
+  <si>
+    <t>xxxxxxx1</t>
+  </si>
+  <si>
+    <t>yyyyyyy2</t>
+  </si>
+  <si>
+    <t>888888888</t>
+  </si>
+  <si>
+    <t>zzzzzzz3</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>tttttttttttt8</t>
+  </si>
+  <si>
+    <t>TANF adult recipients with invalid DOB or age&lt;12</t>
+  </si>
+  <si>
+    <t>TANF child recipients with invalid DOB or age&gt;19</t>
+  </si>
+  <si>
+    <t>State: xxxxxxxx in FY2026</t>
+  </si>
+  <si>
+    <t>min_age</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1710,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1708,8 +1777,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -2001,12 +2076,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2103,12 +2193,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2132,7 +2216,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2230,6 +2313,31 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2299,12 +2407,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2316,15 +2436,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2711,6 +2822,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>470441</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2353074B-2A9E-4FE7-0300-978C4BB62E72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="6483350"/>
+          <a:ext cx="10522491" cy="3378374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
@@ -2745,55 +2905,6 @@
         <a:xfrm>
           <a:off x="222250" y="5194300"/>
           <a:ext cx="4388076" cy="2978303"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>470441</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>76374</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2353074B-2A9E-4FE7-0300-978C4BB62E72}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="95250" y="6483350"/>
-          <a:ext cx="10522491" cy="3378374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2950,12 +3061,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Song, Yun (ACF)" id="{E850133D-A02B-46F5-8C6F-F1C4623A067D}" userId="S::Yun.Song@ACF.hhs.gov::e90a3a26-b2f6-4b68-af67-56522fee04b8" providerId="AD"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3243,42 +3348,34 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B11" dT="2025-05-22T13:50:38.34" personId="{E850133D-A02B-46F5-8C6F-F1C4623A067D}" id="{5A30A03B-C557-4A6E-B97B-F8361FD58355}">
-    <text>After fixed the wrong coding</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="46.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
     <col min="8" max="8" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A1" s="101" t="s">
+    <row r="1" spans="1:5" ht="25.15" customHeight="1">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1"/>
     <row r="4" spans="1:5">
@@ -3288,10 +3385,10 @@
       <c r="B4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="105" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3300,18 +3397,18 @@
       <c r="B5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49" t="s">
+      <c r="D5" s="103"/>
+      <c r="E5" s="106" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="42"/>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="67" t="s">
+      <c r="D6" s="103"/>
+      <c r="E6" s="107" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3320,8 +3417,8 @@
       <c r="B7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49" t="s">
+      <c r="D7" s="103"/>
+      <c r="E7" s="106" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3330,8 +3427,8 @@
       <c r="B8" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49" t="s">
+      <c r="D8" s="103"/>
+      <c r="E8" s="106" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3340,8 +3437,8 @@
       <c r="B9" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49" t="s">
+      <c r="D9" s="103"/>
+      <c r="E9" s="106" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3350,8 +3447,8 @@
       <c r="B10" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49" t="s">
+      <c r="D10" s="103"/>
+      <c r="E10" s="106" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3360,8 +3457,8 @@
       <c r="B11" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49" t="s">
+      <c r="D11" s="103"/>
+      <c r="E11" s="106" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3370,57 +3467,82 @@
       <c r="B12" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51" t="s">
+      <c r="D12" s="103"/>
+      <c r="E12" s="106" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1"/>
-    <row r="14" spans="1:5">
-      <c r="A14" s="62" t="s">
+    <row r="13" spans="1:5" ht="31.15" customHeight="1" thickBot="1">
+      <c r="D13" s="104"/>
+      <c r="E13" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="63" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1">
+      <c r="D14" s="109"/>
+      <c r="E14" s="110"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1"/>
+    <row r="16" spans="1:5">
+      <c r="A16" s="56" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1">
-      <c r="A15" s="64"/>
-      <c r="B15" s="65" t="s">
+      <c r="B16" s="57" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1"/>
-    <row r="18" spans="1:2">
-      <c r="A18" s="52" t="s">
+    <row r="17" spans="1:2" ht="15" thickBot="1">
+      <c r="A17" s="58"/>
+      <c r="B17" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="53" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1"/>
+    <row r="20" spans="1:2">
+      <c r="A20" s="46" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55" t="s">
+      <c r="B20" s="47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="48"/>
+      <c r="B21" s="49" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="48"/>
+      <c r="B22" s="49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1">
-      <c r="A22" s="56"/>
-      <c r="B22" s="57" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="48"/>
+      <c r="B23" s="49" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1">
+      <c r="A24" s="50"/>
+      <c r="B24" s="51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1"/>
+    <row r="26" spans="1:2">
+      <c r="A26" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="100" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" thickBot="1">
+      <c r="A27" s="95"/>
+      <c r="B27" s="101" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3442,14 +3564,17 @@
     <hyperlink ref="E11" location="'WPR_Report_3.4 Disregarded_part'!A1" display="  3.4 Disregarded but met work requirement Cases" xr:uid="{9E169CBC-4728-4220-8DF7-88F56AD6C14C}"/>
     <hyperlink ref="B12" location="WPR_Report_4.NumDen!A1" display="4. numerator/denominator and rate" xr:uid="{EA78052B-7C7D-4DF6-8878-5BBC6E8686CB}"/>
     <hyperlink ref="E12" location="WPR_Report_4.NumDen!A1" display="4.  numerator/denominator and rate" xr:uid="{4499BBD2-CF87-4602-A8B1-62957F5212DC}"/>
-    <hyperlink ref="B14" location="Combined_WPR_Report_1_Num!A1" display="1. TANF&amp;SSP numerator/denominator and rate" xr:uid="{524E421D-0789-47BD-AE39-8E3D085ED873}"/>
-    <hyperlink ref="B15" location="Combined_WPR_Report_2.WPR!A1" display="2. TANF and SSP combined WPRs" xr:uid="{D7E3D551-3CA9-4C2F-AAA3-746F4756719D}"/>
-    <hyperlink ref="B19" location="'TL_Report_1_Months Distribution'!A1" display=" 1. Countable Months" xr:uid="{F43BB282-5CB5-4851-9412-3CF657FC509F}"/>
-    <hyperlink ref="B20" location="TL_Report_2_exemptions!A1" display=" 2. Exemption Distribution" xr:uid="{1CE68A87-74F7-435C-9B42-F1B7A3C1DBC7}"/>
-    <hyperlink ref="B21" location="TL_Report_3_Errorflags!A1" display=" 3. TimeLimit Errorflags" xr:uid="{C2B45B55-64E0-455F-905F-7312ED21FC1B}"/>
-    <hyperlink ref="B22" location="TL_Report_4_Over60Months!A1" display=" 4. Number of Cases with over 60 months" xr:uid="{BF401493-7928-4FCD-B1BC-391B28531882}"/>
+    <hyperlink ref="B16" location="Combined_WPR_Report_1_Num!A1" display="1. TANF&amp;SSP numerator/denominator and rate" xr:uid="{524E421D-0789-47BD-AE39-8E3D085ED873}"/>
+    <hyperlink ref="B17" location="Combined_WPR_Report_2.WPR!A1" display="2. TANF and SSP combined WPRs" xr:uid="{D7E3D551-3CA9-4C2F-AAA3-746F4756719D}"/>
+    <hyperlink ref="B21" location="'TL_Report_1_Months Distribution'!A1" display=" 1. Countable Months" xr:uid="{F43BB282-5CB5-4851-9412-3CF657FC509F}"/>
+    <hyperlink ref="B22" location="TL_Report_2_exemptions!A1" display=" 2. Exemption Distribution" xr:uid="{1CE68A87-74F7-435C-9B42-F1B7A3C1DBC7}"/>
+    <hyperlink ref="B23" location="TL_Report_3_Errorflags!A1" display=" 3. TimeLimit Errorflags" xr:uid="{C2B45B55-64E0-455F-905F-7312ED21FC1B}"/>
+    <hyperlink ref="B24" location="TL_Report_4_Over60Months!A1" display=" 4. Number of Cases with over 60 months" xr:uid="{BF401493-7928-4FCD-B1BC-391B28531882}"/>
     <hyperlink ref="B7" location="'WPR_Report_3.0 Zero_payment'!A1" display="  3.0 Zero Payment " xr:uid="{7C72DEE9-476E-41BD-9235-4156223A5458}"/>
     <hyperlink ref="E7" location="'WPR_Report_3.0 Zero_payment'!A1" display="  3.0 Zero Payment " xr:uid="{2E30CFC6-2903-4711-B7AE-2119FC45A20C}"/>
+    <hyperlink ref="B26" location="invalid_SSNs!A1" display="1. invalid_SSNs" xr:uid="{249993AE-ABDB-489A-8021-C18338AA7CD8}"/>
+    <hyperlink ref="B27" location="INvalid_age!A1" display="2.invald DOBs or age inappropriations" xr:uid="{2E58383D-C21B-4A9A-9CDF-1730E95A35F1}"/>
+    <hyperlink ref="E13" location="'SSP cases&lt;$35'!A1" display="5.  number of cases each month that with  cash_assistance less than $35" xr:uid="{82CB6F81-8EA8-453D-99D9-790B649F6227}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3457,6 +3582,98 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8B3240-3989-4380-9C33-997FBAF1CAFA}">
+  <dimension ref="B3:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="B3" s="134" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="C4" s="134" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="134"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="C6" s="96" t="s">
+        <v>273</v>
+      </c>
+      <c r="D6" s="96" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="C7" s="96">
+        <v>202510</v>
+      </c>
+      <c r="D7" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="C8" s="96">
+        <v>202511</v>
+      </c>
+      <c r="D8" s="96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="C9" s="96">
+        <v>202512</v>
+      </c>
+      <c r="D9" s="96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="C10" s="96">
+        <v>202601</v>
+      </c>
+      <c r="D10" s="96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="C11" s="96">
+        <v>202602</v>
+      </c>
+      <c r="D11" s="96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="C12" s="96">
+        <v>202603</v>
+      </c>
+      <c r="D12" s="96">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC8E1B3-1F34-4F8D-AF3C-269B77E7E809}">
   <dimension ref="B1:P16"/>
   <sheetViews>
@@ -3466,7 +3683,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" customWidth="1"/>
     <col min="5" max="16" width="5.5703125" customWidth="1"/>
@@ -3475,145 +3692,145 @@
     <row r="1" spans="2:16" ht="15" thickBot="1"/>
     <row r="2" spans="2:16" ht="15" thickBot="1">
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="115"/>
+        <v>29</v>
+      </c>
+      <c r="D2" s="123" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="125"/>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1">
       <c r="B3" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="119" t="s">
-        <v>268</v>
-      </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="121"/>
+        <v>38</v>
+      </c>
+      <c r="D3" s="129" t="s">
+        <v>276</v>
+      </c>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="131"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="C5" s="124" t="s">
-        <v>269</v>
-      </c>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
+      <c r="C5" s="135" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
     </row>
     <row r="6" spans="2:16" ht="15" thickBot="1">
-      <c r="C6" s="123" t="s">
-        <v>244</v>
-      </c>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
+      <c r="C6" s="133" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
     </row>
     <row r="7" spans="2:16" ht="15" thickBot="1">
       <c r="B7" s="17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" thickBot="1">
       <c r="B8" s="20" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D8" s="72">
+        <v>264</v>
+      </c>
+      <c r="D8" s="65">
         <v>99</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="65">
         <v>88</v>
       </c>
-      <c r="F8" s="72">
+      <c r="F8" s="65">
         <v>84</v>
       </c>
-      <c r="G8" s="72">
+      <c r="G8" s="65">
         <v>94</v>
       </c>
-      <c r="H8" s="72">
+      <c r="H8" s="65">
         <v>87</v>
       </c>
-      <c r="I8" s="72">
+      <c r="I8" s="65">
         <v>74</v>
       </c>
-      <c r="J8" s="72">
+      <c r="J8" s="65">
         <v>72</v>
       </c>
-      <c r="K8" s="72">
+      <c r="K8" s="65">
         <v>74</v>
       </c>
-      <c r="L8" s="72">
+      <c r="L8" s="65">
         <v>53</v>
       </c>
       <c r="M8" s="20">
@@ -3631,36 +3848,36 @@
     </row>
     <row r="9" spans="2:16" ht="15" thickBot="1">
       <c r="B9" s="20" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="D9" s="72">
+        <v>265</v>
+      </c>
+      <c r="D9" s="65">
         <v>641</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="65">
         <v>571</v>
       </c>
-      <c r="F9" s="72">
+      <c r="F9" s="65">
         <v>549</v>
       </c>
-      <c r="G9" s="72">
+      <c r="G9" s="65">
         <v>521</v>
       </c>
-      <c r="H9" s="72">
+      <c r="H9" s="65">
         <v>499</v>
       </c>
-      <c r="I9" s="72">
+      <c r="I9" s="65">
         <v>458</v>
       </c>
-      <c r="J9" s="72">
+      <c r="J9" s="65">
         <v>431</v>
       </c>
-      <c r="K9" s="72">
+      <c r="K9" s="65">
         <v>427</v>
       </c>
-      <c r="L9" s="72">
+      <c r="L9" s="65">
         <v>416</v>
       </c>
       <c r="M9" s="20">
@@ -3678,10 +3895,10 @@
     </row>
     <row r="10" spans="2:16" ht="15" thickBot="1">
       <c r="B10" s="20" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D10" s="20">
         <v>15.4</v>
@@ -3692,7 +3909,7 @@
       <c r="F10" s="20">
         <v>15.3</v>
       </c>
-      <c r="G10" s="72">
+      <c r="G10" s="65">
         <v>18</v>
       </c>
       <c r="H10" s="20">
@@ -3724,28 +3941,28 @@
       </c>
     </row>
     <row r="11" spans="2:16" ht="15" thickBot="1">
-      <c r="B11" s="110"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="112"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="121"/>
+      <c r="P11" s="122"/>
     </row>
     <row r="12" spans="2:16" ht="15" thickBot="1">
       <c r="B12" s="20" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D12" s="20">
         <v>0</v>
@@ -3784,15 +4001,15 @@
         <v>0</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="15" thickBot="1">
       <c r="B13" s="20" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D13" s="20">
         <v>0</v>
@@ -3831,59 +4048,59 @@
         <v>0</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="15" thickBot="1">
       <c r="B14" s="20" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="N14" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="O14" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="59" t="s">
-        <v>32</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="26.45">
+      <c r="B16" s="53" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3898,7 +4115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:P19"/>
   <sheetViews>
@@ -3910,39 +4127,39 @@
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="4" max="16" width="7.140625" customWidth="1"/>
+    <col min="4" max="16" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1"/>
     <row r="2" spans="2:16" ht="15" thickBot="1">
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="115"/>
+        <v>29</v>
+      </c>
+      <c r="D2" s="123" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="125"/>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1">
       <c r="B3" s="9" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="119" t="s">
-        <v>271</v>
-      </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="121"/>
+        <v>38</v>
+      </c>
+      <c r="D3" s="129" t="s">
+        <v>279</v>
+      </c>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="131"/>
     </row>
     <row r="4" spans="2:16">
       <c r="D4" s="34"/>
@@ -3953,90 +4170,90 @@
     </row>
     <row r="5" spans="2:16">
       <c r="E5" s="37"/>
-      <c r="F5" s="122" t="s">
-        <v>272</v>
-      </c>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
+      <c r="F5" s="132" t="s">
+        <v>280</v>
+      </c>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
       <c r="J5" s="37"/>
       <c r="K5" s="37"/>
     </row>
     <row r="6" spans="2:16">
       <c r="E6" s="37"/>
-      <c r="F6" s="122" t="s">
-        <v>273</v>
-      </c>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
+      <c r="F6" s="132" t="s">
+        <v>281</v>
+      </c>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
     </row>
     <row r="7" spans="2:16" ht="15" thickBot="1">
-      <c r="E7" s="123" t="s">
-        <v>274</v>
-      </c>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-    </row>
-    <row r="8" spans="2:16" ht="28.5" thickBot="1">
+      <c r="E7" s="133" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+    </row>
+    <row r="8" spans="2:16" ht="28.15" thickBot="1">
       <c r="B8" s="18" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="P8" s="23" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="26.45" thickBot="1">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="27" thickBot="1">
       <c r="B9" s="21" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D9" s="21">
         <v>48.4</v>
@@ -4078,12 +4295,12 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="26.45" thickBot="1">
+    <row r="10" spans="2:16" ht="27" thickBot="1">
       <c r="B10" s="21" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D10" s="21">
         <v>38.700000000000003</v>
@@ -4126,28 +4343,28 @@
       </c>
     </row>
     <row r="11" spans="2:16" ht="15" thickBot="1">
-      <c r="B11" s="110"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="112"/>
-    </row>
-    <row r="12" spans="2:16" ht="26.45" thickBot="1">
+      <c r="B11" s="120"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="121"/>
+      <c r="P11" s="122"/>
+    </row>
+    <row r="12" spans="2:16" ht="27" thickBot="1">
       <c r="B12" s="21" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D12" s="21">
         <v>0</v>
@@ -4189,12 +4406,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="26.45" thickBot="1">
+    <row r="13" spans="2:16" ht="27" thickBot="1">
       <c r="B13" s="21" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D13" s="21">
         <v>0</v>
@@ -4237,28 +4454,28 @@
       </c>
     </row>
     <row r="14" spans="2:16" ht="15" thickBot="1">
-      <c r="B14" s="110"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="111"/>
-      <c r="P14" s="112"/>
-    </row>
-    <row r="15" spans="2:16" ht="26.45" thickBot="1">
+      <c r="B14" s="120"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="121"/>
+      <c r="P14" s="122"/>
+    </row>
+    <row r="15" spans="2:16" ht="27" thickBot="1">
       <c r="B15" s="21" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D15" s="21">
         <v>48.4</v>
@@ -4300,12 +4517,12 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="26.45" thickBot="1">
+    <row r="16" spans="2:16" ht="27" thickBot="1">
       <c r="B16" s="21" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D16" s="21">
         <v>38.700000000000003</v>
@@ -4348,10 +4565,10 @@
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="125" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="125"/>
+      <c r="B19" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4369,7 +4586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:J22"/>
   <sheetViews>
@@ -4386,146 +4603,146 @@
     <row r="1" spans="2:10" ht="15" thickBot="1"/>
     <row r="2" spans="2:10" ht="27" customHeight="1" thickBot="1">
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="115"/>
+        <v>29</v>
+      </c>
+      <c r="D2" s="123" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="125"/>
     </row>
     <row r="3" spans="2:10" ht="15" thickBot="1">
       <c r="B3" s="9" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="119" t="s">
-        <v>296</v>
-      </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="121"/>
+        <v>38</v>
+      </c>
+      <c r="D3" s="129" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="131"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="11" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="117" t="s">
-        <v>299</v>
-      </c>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
+        <v>44</v>
+      </c>
+      <c r="D7" s="127" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="117" t="s">
-        <v>301</v>
-      </c>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-    </row>
-    <row r="9" spans="2:10" ht="15.95">
+        <v>44</v>
+      </c>
+      <c r="D8" s="127" t="s">
+        <v>309</v>
+      </c>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.6">
       <c r="B9" s="12" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-    </row>
-    <row r="10" spans="2:10" ht="15.95">
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
+    </row>
+    <row r="10" spans="2:10" ht="15.6">
       <c r="B10" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-    </row>
-    <row r="11" spans="2:10" ht="15.95">
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.6">
       <c r="B11" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126"/>
-    </row>
-    <row r="12" spans="2:10" ht="15.95">
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+    </row>
+    <row r="12" spans="2:10" ht="15.6">
       <c r="B12" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="132" t="s">
-        <v>309</v>
-      </c>
-      <c r="E12" s="132"/>
+        <v>44</v>
+      </c>
+      <c r="D12" s="138" t="s">
+        <v>317</v>
+      </c>
+      <c r="E12" s="138"/>
       <c r="F12" s="36"/>
       <c r="G12" s="15"/>
       <c r="H12" s="36"/>
       <c r="I12" s="15"/>
       <c r="J12" s="35"/>
     </row>
-    <row r="13" spans="2:10" ht="15.95">
+    <row r="13" spans="2:10" ht="15.6">
       <c r="B13" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="36"/>
@@ -4534,15 +4751,15 @@
       <c r="I13" s="15"/>
       <c r="J13" s="35"/>
     </row>
-    <row r="14" spans="2:10" ht="15.95">
+    <row r="14" spans="2:10" ht="15.6">
       <c r="B14" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="36"/>
@@ -4551,109 +4768,109 @@
       <c r="I14" s="15"/>
       <c r="J14" s="35"/>
     </row>
-    <row r="15" spans="2:10" ht="14.45" customHeight="1">
+    <row r="15" spans="2:10" ht="14.65" customHeight="1">
       <c r="B15" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="131" t="s">
-        <v>315</v>
-      </c>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-    </row>
-    <row r="16" spans="2:10" ht="14.45" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="D15" s="139" t="s">
+        <v>323</v>
+      </c>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+    </row>
+    <row r="16" spans="2:10" ht="14.65" customHeight="1">
       <c r="B16" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="130" t="s">
-        <v>317</v>
-      </c>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-    </row>
-    <row r="17" spans="2:10" ht="14.45" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="D16" s="137" t="s">
+        <v>325</v>
+      </c>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+    </row>
+    <row r="17" spans="2:10" ht="14.65" customHeight="1">
       <c r="B17" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="130" t="s">
-        <v>319</v>
-      </c>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-    </row>
-    <row r="18" spans="2:10" ht="14.45" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="D17" s="137" t="s">
+        <v>327</v>
+      </c>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+    </row>
+    <row r="18" spans="2:10" ht="14.65" customHeight="1">
       <c r="B18" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="130" t="s">
-        <v>321</v>
-      </c>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
-    </row>
-    <row r="19" spans="2:10" ht="14.45" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="D18" s="137" t="s">
+        <v>329</v>
+      </c>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+    </row>
+    <row r="19" spans="2:10" ht="14.65" customHeight="1">
       <c r="B19" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="130" t="s">
-        <v>323</v>
-      </c>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="130"/>
+        <v>44</v>
+      </c>
+      <c r="D19" s="137" t="s">
+        <v>331</v>
+      </c>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
     </row>
     <row r="20" spans="2:10">
       <c r="C20" s="12"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="125" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
+      <c r="B21" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="136"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
     </row>
     <row r="22" spans="2:10">
       <c r="C22" s="12"/>
@@ -4661,14 +4878,14 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="D19:F19"/>
@@ -4678,14 +4895,14 @@
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G16:H16"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4693,12 +4910,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -4710,243 +4927,243 @@
     <row r="1" spans="2:14" ht="15" thickBot="1"/>
     <row r="2" spans="2:14" ht="29.45" thickBot="1">
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+        <v>29</v>
+      </c>
+      <c r="D2" s="123" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
     </row>
     <row r="3" spans="2:14" ht="15" thickBot="1">
       <c r="B3" s="9" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="119" t="s">
-        <v>325</v>
-      </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+        <v>38</v>
+      </c>
+      <c r="D3" s="129" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" s="130"/>
+      <c r="F3" s="131"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="11" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
     </row>
     <row r="6" spans="2:14">
       <c r="B6" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="117" t="s">
-        <v>299</v>
-      </c>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
+        <v>44</v>
+      </c>
+      <c r="D6" s="127" t="s">
+        <v>307</v>
+      </c>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
     </row>
     <row r="7" spans="2:14">
       <c r="B7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="117" t="s">
-        <v>301</v>
-      </c>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
+        <v>44</v>
+      </c>
+      <c r="D7" s="127" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
       <c r="N7" s="29"/>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="12" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="117" t="s">
-        <v>327</v>
-      </c>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
+        <v>44</v>
+      </c>
+      <c r="D8" s="127" t="s">
+        <v>335</v>
+      </c>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
       <c r="J8" s="29"/>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="117" t="s">
-        <v>328</v>
-      </c>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
+        <v>44</v>
+      </c>
+      <c r="D9" s="127" t="s">
+        <v>336</v>
+      </c>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="137" t="s">
-        <v>329</v>
-      </c>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
+        <v>44</v>
+      </c>
+      <c r="D10" s="148" t="s">
+        <v>337</v>
+      </c>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="71" t="s">
-        <v>330</v>
+      <c r="B11" s="64" t="s">
+        <v>338</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="135" t="s">
-        <v>331</v>
-      </c>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135"/>
+        <v>44</v>
+      </c>
+      <c r="D11" s="146" t="s">
+        <v>339</v>
+      </c>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="71" t="s">
-        <v>332</v>
+      <c r="B12" s="64" t="s">
+        <v>340</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="136" t="s">
-        <v>333</v>
-      </c>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
+        <v>44</v>
+      </c>
+      <c r="D12" s="147" t="s">
+        <v>341</v>
+      </c>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="71" t="s">
-        <v>334</v>
+      <c r="B13" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>335</v>
+        <v>44</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="71" t="s">
-        <v>336</v>
+      <c r="B14" s="64" t="s">
+        <v>344</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>337</v>
+        <v>44</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="71" t="s">
-        <v>338</v>
+      <c r="B15" s="64" t="s">
+        <v>346</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="60" t="s">
-        <v>339</v>
+        <v>44</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="71" t="s">
-        <v>340</v>
+      <c r="B16" s="64" t="s">
+        <v>348</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="60" t="s">
-        <v>341</v>
+        <v>44</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="71" t="s">
-        <v>342</v>
+      <c r="B17" s="64" t="s">
+        <v>350</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="60" t="s">
-        <v>343</v>
+        <v>44</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="71" t="s">
-        <v>344</v>
+      <c r="B18" s="64" t="s">
+        <v>352</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="60" t="s">
-        <v>345</v>
+        <v>44</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="42" customHeight="1">
-      <c r="B19" s="139" t="s">
-        <v>346</v>
-      </c>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
+      <c r="B19" s="150" t="s">
+        <v>354</v>
+      </c>
+      <c r="C19" s="150"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="125" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="125"/>
+      <c r="B20" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="136"/>
       <c r="D20" s="28"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
@@ -5068,36 +5285,36 @@
     </row>
     <row r="31" spans="2:11" s="26" customFormat="1" ht="42.75" customHeight="1">
       <c r="C31" s="27"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="134"/>
-      <c r="J31" s="134"/>
-      <c r="K31" s="134"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="145"/>
     </row>
     <row r="32" spans="2:11" s="26" customFormat="1" ht="31.5" customHeight="1">
       <c r="C32" s="27"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="134"/>
-      <c r="J32" s="134"/>
-      <c r="K32" s="134"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
     </row>
     <row r="33" spans="3:11" s="26" customFormat="1" ht="41.25" customHeight="1">
       <c r="C33" s="27"/>
-      <c r="D33" s="133"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="134"/>
-      <c r="H33" s="134"/>
-      <c r="I33" s="134"/>
-      <c r="J33" s="134"/>
-      <c r="K33" s="134"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="145"/>
     </row>
     <row r="34" spans="3:11" ht="15" customHeight="1"/>
   </sheetData>
@@ -5120,15 +5337,14 @@
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AEA13D-C9C6-4358-AF48-2F2D77C491C4}">
   <dimension ref="B1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
@@ -5140,132 +5356,132 @@
     <row r="1" spans="2:9" ht="15" thickBot="1"/>
     <row r="2" spans="2:9" ht="15" thickBot="1">
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+        <v>29</v>
+      </c>
+      <c r="D2" s="123" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
     </row>
     <row r="3" spans="2:9" ht="15" thickBot="1">
       <c r="B3" s="9" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="119" t="s">
-        <v>348</v>
-      </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+        <v>38</v>
+      </c>
+      <c r="D3" s="129" t="s">
+        <v>356</v>
+      </c>
+      <c r="E3" s="130"/>
+      <c r="F3" s="131"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" t="s">
-        <v>349</v>
+        <v>273</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="117" t="s">
-        <v>299</v>
-      </c>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
+        <v>44</v>
+      </c>
+      <c r="D6" s="127" t="s">
+        <v>307</v>
+      </c>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -5323,114 +5539,114 @@
       <c r="C32" s="12"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="125" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="125"/>
+      <c r="B33" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="136"/>
     </row>
     <row r="34" spans="2:8" ht="15" thickBot="1"/>
     <row r="35" spans="2:8" ht="15" thickBot="1">
-      <c r="B35" s="70" t="s">
-        <v>360</v>
-      </c>
-      <c r="C35" s="113" t="s">
-        <v>362</v>
-      </c>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="115"/>
-    </row>
-    <row r="36" spans="2:8" ht="183.95" customHeight="1" thickBot="1">
-      <c r="B36" s="68">
+      <c r="B35" s="63" t="s">
+        <v>367</v>
+      </c>
+      <c r="C35" s="123" t="s">
+        <v>369</v>
+      </c>
+      <c r="D35" s="124"/>
+      <c r="E35" s="124"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="125"/>
+    </row>
+    <row r="36" spans="2:8" ht="184.15" customHeight="1" thickBot="1">
+      <c r="B36" s="61">
         <v>1</v>
       </c>
-      <c r="C36" s="140" t="s">
-        <v>363</v>
-      </c>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="142"/>
-    </row>
-    <row r="37" spans="2:8" ht="110.1" customHeight="1" thickBot="1">
-      <c r="B37" s="69">
+      <c r="C36" s="151" t="s">
+        <v>370</v>
+      </c>
+      <c r="D36" s="152"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="153"/>
+    </row>
+    <row r="37" spans="2:8" ht="109.9" customHeight="1" thickBot="1">
+      <c r="B37" s="62">
         <v>2</v>
       </c>
-      <c r="C37" s="140" t="s">
-        <v>364</v>
-      </c>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="142"/>
-    </row>
-    <row r="38" spans="2:8" ht="87.95" customHeight="1" thickBot="1">
-      <c r="B38" s="69">
+      <c r="C37" s="151" t="s">
+        <v>371</v>
+      </c>
+      <c r="D37" s="152"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="152"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="153"/>
+    </row>
+    <row r="38" spans="2:8" ht="88.15" customHeight="1" thickBot="1">
+      <c r="B38" s="62">
         <v>3</v>
       </c>
-      <c r="C38" s="140" t="s">
-        <v>365</v>
-      </c>
-      <c r="D38" s="141"/>
-      <c r="E38" s="141"/>
-      <c r="F38" s="141"/>
-      <c r="G38" s="141"/>
-      <c r="H38" s="142"/>
+      <c r="C38" s="151" t="s">
+        <v>372</v>
+      </c>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="153"/>
     </row>
     <row r="39" spans="2:8" ht="61.5" customHeight="1" thickBot="1">
-      <c r="B39" s="69">
+      <c r="B39" s="62">
         <v>4</v>
       </c>
-      <c r="C39" s="140" t="s">
-        <v>366</v>
-      </c>
-      <c r="D39" s="141"/>
-      <c r="E39" s="141"/>
-      <c r="F39" s="141"/>
-      <c r="G39" s="141"/>
-      <c r="H39" s="142"/>
+      <c r="C39" s="151" t="s">
+        <v>373</v>
+      </c>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="153"/>
     </row>
     <row r="40" spans="2:8" ht="93" customHeight="1" thickBot="1">
-      <c r="B40" s="69">
+      <c r="B40" s="62">
         <v>5</v>
       </c>
-      <c r="C40" s="140" t="s">
-        <v>367</v>
-      </c>
-      <c r="D40" s="141"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="141"/>
-      <c r="G40" s="141"/>
-      <c r="H40" s="142"/>
+      <c r="C40" s="151" t="s">
+        <v>374</v>
+      </c>
+      <c r="D40" s="152"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="152"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="153"/>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D6:I6"/>
     <mergeCell ref="C37:H37"/>
     <mergeCell ref="C38:H38"/>
     <mergeCell ref="C39:H39"/>
     <mergeCell ref="C40:H40"/>
     <mergeCell ref="C36:H36"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C27BAC-3E0B-4B32-9511-1B9ADDA97F1B}">
   <dimension ref="B1:H13"/>
   <sheetViews>
@@ -5441,118 +5657,118 @@
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1"/>
     <row r="2" spans="2:8" ht="15" thickBot="1">
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15" thickBot="1">
       <c r="B3" s="9" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="37" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" t="s">
-        <v>349</v>
+        <v>273</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="117" t="s">
-        <v>299</v>
-      </c>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
+        <v>44</v>
+      </c>
+      <c r="D7" s="127" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="117" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
+        <v>44</v>
+      </c>
+      <c r="D8" s="127" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
+        <v>44</v>
+      </c>
+      <c r="D9" s="127" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="117" t="s">
-        <v>359</v>
-      </c>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
+        <v>44</v>
+      </c>
+      <c r="D10" s="127" t="s">
+        <v>366</v>
+      </c>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="125" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="125"/>
+      <c r="B13" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5567,59 +5783,413 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17E578D-44A2-47D8-9DD7-92B789CE628A}">
+  <dimension ref="B2:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="96" t="s">
+        <v>384</v>
+      </c>
+      <c r="C5" s="96" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" s="96" t="s">
+        <v>386</v>
+      </c>
+      <c r="G5" s="96" t="s">
+        <v>384</v>
+      </c>
+      <c r="H5" s="96" t="s">
+        <v>385</v>
+      </c>
+      <c r="I5" s="96" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="97">
+        <v>1000007</v>
+      </c>
+      <c r="C6" s="98" t="s">
+        <v>387</v>
+      </c>
+      <c r="D6" s="96">
+        <v>19910414</v>
+      </c>
+      <c r="G6" s="97">
+        <v>1500006</v>
+      </c>
+      <c r="H6" s="96" t="s">
+        <v>388</v>
+      </c>
+      <c r="I6" s="96">
+        <v>20080101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="97">
+        <v>1300003</v>
+      </c>
+      <c r="C7" s="98" t="s">
+        <v>389</v>
+      </c>
+      <c r="D7" s="96">
+        <v>19990101</v>
+      </c>
+      <c r="G7" s="97">
+        <v>27800008</v>
+      </c>
+      <c r="H7" s="98" t="s">
+        <v>390</v>
+      </c>
+      <c r="I7" s="96">
+        <v>20251201</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="97">
+        <v>2890002</v>
+      </c>
+      <c r="C8" s="98" t="s">
+        <v>391</v>
+      </c>
+      <c r="D8" s="96">
+        <v>19850516</v>
+      </c>
+      <c r="G8" s="97">
+        <v>2890002</v>
+      </c>
+      <c r="H8" s="98" t="s">
+        <v>391</v>
+      </c>
+      <c r="I8" s="96">
+        <v>20240516</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="97">
+        <v>3800001</v>
+      </c>
+      <c r="C9" s="98" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9" s="96">
+        <v>19890429</v>
+      </c>
+      <c r="G9" s="97">
+        <v>3800001</v>
+      </c>
+      <c r="H9" s="98" t="s">
+        <v>387</v>
+      </c>
+      <c r="I9" s="96">
+        <v>20200429</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="97">
+        <v>30504008</v>
+      </c>
+      <c r="C10" s="98" t="s">
+        <v>389</v>
+      </c>
+      <c r="D10" s="96">
+        <v>19780316</v>
+      </c>
+      <c r="G10" s="97">
+        <v>30504008</v>
+      </c>
+      <c r="H10" s="98" t="s">
+        <v>389</v>
+      </c>
+      <c r="I10" s="96">
+        <v>20230316</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="97">
+        <v>305000003</v>
+      </c>
+      <c r="C11" s="98" t="s">
+        <v>387</v>
+      </c>
+      <c r="D11" s="96">
+        <v>19800502</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="97">
+        <v>345600001</v>
+      </c>
+      <c r="C12" s="98" t="s">
+        <v>389</v>
+      </c>
+      <c r="D12" s="96">
+        <v>19960811</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="96" t="s">
+        <v>392</v>
+      </c>
+      <c r="C13" s="98" t="s">
+        <v>387</v>
+      </c>
+      <c r="D13" s="96">
+        <v>19830722</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="96" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14" s="98" t="s">
+        <v>394</v>
+      </c>
+      <c r="D14" s="96">
+        <v>19710528</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="96" t="s">
+        <v>395</v>
+      </c>
+      <c r="C15" s="98" t="s">
+        <v>396</v>
+      </c>
+      <c r="D15" s="96">
+        <v>19830829</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="96" t="s">
+        <v>397</v>
+      </c>
+      <c r="C16" s="98" t="s">
+        <v>389</v>
+      </c>
+      <c r="D16" s="96">
+        <v>19740217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9AD3027-9939-4978-82D8-186BBF9322F9}">
+  <dimension ref="B7:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>400</v>
+      </c>
+      <c r="G8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="96" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" s="96" t="s">
+        <v>384</v>
+      </c>
+      <c r="D10" s="96" t="s">
+        <v>401</v>
+      </c>
+      <c r="E10" s="96" t="s">
+        <v>386</v>
+      </c>
+      <c r="G10" s="96" t="s">
+        <v>273</v>
+      </c>
+      <c r="H10" s="96" t="s">
+        <v>384</v>
+      </c>
+      <c r="I10" s="96" t="s">
+        <v>401</v>
+      </c>
+      <c r="J10" s="96" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="96">
+        <v>202511</v>
+      </c>
+      <c r="C11" s="96">
+        <v>1050000001</v>
+      </c>
+      <c r="D11" s="96">
+        <v>10.1</v>
+      </c>
+      <c r="E11" s="96">
+        <v>20150918</v>
+      </c>
+      <c r="G11" s="96">
+        <v>202511</v>
+      </c>
+      <c r="H11" s="96">
+        <v>1050000001</v>
+      </c>
+      <c r="I11" s="96">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="J11" s="96">
+        <v>20050918</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="96">
+        <v>202512</v>
+      </c>
+      <c r="C12" s="96">
+        <v>2005000002</v>
+      </c>
+      <c r="D12" s="99" t="s">
+        <v>268</v>
+      </c>
+      <c r="E12" s="96">
+        <v>19041302</v>
+      </c>
+      <c r="G12" s="96">
+        <v>202512</v>
+      </c>
+      <c r="H12" s="96">
+        <v>2005000002</v>
+      </c>
+      <c r="I12" s="96">
+        <v>20.5</v>
+      </c>
+      <c r="J12" s="96">
+        <v>20041210</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="G13" s="96">
+        <v>202512</v>
+      </c>
+      <c r="H13" s="96">
+        <v>2005000002</v>
+      </c>
+      <c r="I13" s="99" t="s">
+        <v>268</v>
+      </c>
+      <c r="J13" s="96">
+        <v>20241232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:D7"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1"/>
     <row r="2" spans="2:4" ht="15" thickBot="1">
       <c r="B2" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15" thickBot="1">
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="59" t="s">
-        <v>32</v>
+      <c r="B7" s="53" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5640,7 +6210,7 @@
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" customWidth="1"/>
     <col min="4" max="4" width="41.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -5650,392 +6220,392 @@
     <row r="1" spans="2:4" ht="15" thickBot="1"/>
     <row r="2" spans="2:4" ht="15" thickBot="1">
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15" thickBot="1">
       <c r="B4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="26.45">
+      <c r="B6" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="58" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="58"/>
+      <c r="B7" s="52"/>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" ht="35.450000000000003" customHeight="1"/>
-    <row r="42" spans="2:4" ht="26.45" customHeight="1"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="35.65" customHeight="1"/>
+    <row r="42" spans="2:4" ht="26.65" customHeight="1"/>
     <row r="67" spans="2:4">
-      <c r="B67" s="103" t="s">
-        <v>99</v>
-      </c>
-      <c r="C67" s="103"/>
-      <c r="D67" s="103"/>
+      <c r="B67" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="113"/>
+      <c r="D67" s="113"/>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" s="102"/>
-      <c r="C68" s="102"/>
+      <c r="B68" s="112"/>
+      <c r="C68" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6064,440 +6634,440 @@
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="9" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1"/>
     <row r="2" spans="2:9" ht="15" thickBot="1">
-      <c r="B2" s="104" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="106"/>
-      <c r="G2" s="107" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="108"/>
-      <c r="I2" s="109"/>
-    </row>
-    <row r="3" spans="2:9" ht="31.5" thickBot="1">
-      <c r="B3" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="74" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="74" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="81" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" s="81" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="31.5" thickBot="1">
-      <c r="B4" s="93">
+      <c r="B2" s="114" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="G2" s="117" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="118"/>
+      <c r="I2" s="119"/>
+    </row>
+    <row r="3" spans="2:9" ht="31.9" thickBot="1">
+      <c r="B3" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="31.9" thickBot="1">
+      <c r="B4" s="86">
         <v>1</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="96">
+        <v>109</v>
+      </c>
+      <c r="G4" s="89">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="I4" s="82" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="47.1" thickBot="1">
-      <c r="B5" s="93">
+      <c r="H4" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="47.45" thickBot="1">
+      <c r="B5" s="86">
         <v>2</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" s="96">
+        <v>113</v>
+      </c>
+      <c r="G5" s="89">
         <v>2</v>
       </c>
-      <c r="H5" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="I5" s="82" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="62.45" thickBot="1">
-      <c r="B6" s="93">
+      <c r="H5" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="75" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="63" thickBot="1">
+      <c r="B6" s="86">
         <v>3</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="96">
+        <v>117</v>
+      </c>
+      <c r="G6" s="89">
         <v>3</v>
       </c>
-      <c r="H6" s="82" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6" s="82" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="217.5" thickBot="1">
-      <c r="B7" s="94">
+      <c r="H6" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="219" thickBot="1">
+      <c r="B7" s="87">
         <v>4</v>
       </c>
-      <c r="C7" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="97">
+      <c r="C7" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="90">
         <v>4</v>
       </c>
-      <c r="H7" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" s="84" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="201.95" thickBot="1">
-      <c r="B8" s="94">
+      <c r="H7" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="203.45" thickBot="1">
+      <c r="B8" s="87">
         <v>5</v>
       </c>
-      <c r="C8" s="75" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="97">
+      <c r="C8" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="90">
         <v>5</v>
       </c>
-      <c r="H8" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" s="85" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="62.45" thickBot="1">
-      <c r="B9" s="95">
+      <c r="H8" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="78" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="63" thickBot="1">
+      <c r="B9" s="88">
         <v>6</v>
       </c>
-      <c r="C9" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" s="97">
+      <c r="C9" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="90">
         <v>6</v>
       </c>
-      <c r="H9" s="83" t="s">
-        <v>121</v>
-      </c>
-      <c r="I9" s="83" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="47.1" thickBot="1">
-      <c r="B10" s="93">
+      <c r="H9" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" s="76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="47.45" thickBot="1">
+      <c r="B10" s="86">
         <v>7</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" s="97">
+        <v>129</v>
+      </c>
+      <c r="G10" s="90">
         <v>7</v>
       </c>
-      <c r="H10" s="100" t="s">
-        <v>126</v>
-      </c>
-      <c r="I10" s="100" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="47.1" thickBot="1">
-      <c r="B11" s="93">
+      <c r="H10" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" s="93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="47.45" thickBot="1">
+      <c r="B11" s="86">
         <v>8</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="98">
+        <v>133</v>
+      </c>
+      <c r="G11" s="91">
         <v>8</v>
       </c>
-      <c r="H11" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" s="87" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="78" thickBot="1">
-      <c r="B12" s="93">
+      <c r="H11" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" s="80" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="78.599999999999994" thickBot="1">
+      <c r="B12" s="86">
         <v>9</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="G12" s="96">
+        <v>136</v>
+      </c>
+      <c r="G12" s="89">
         <v>9</v>
       </c>
-      <c r="H12" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="I12" s="82" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="93.6" customHeight="1" thickBot="1">
-      <c r="B13" s="93">
+      <c r="H12" s="75" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" s="75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="93.4" customHeight="1" thickBot="1">
+      <c r="B13" s="86">
         <v>10</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="G13" s="96">
+        <v>139</v>
+      </c>
+      <c r="G13" s="89">
         <v>10</v>
       </c>
-      <c r="H13" s="82" t="s">
-        <v>136</v>
-      </c>
-      <c r="I13" s="82" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="62.45" thickBot="1">
-      <c r="B14" s="93">
+      <c r="H13" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="I13" s="75" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="78.599999999999994" thickBot="1">
+      <c r="B14" s="86">
         <v>11</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="96">
+        <v>143</v>
+      </c>
+      <c r="G14" s="89">
         <v>11</v>
       </c>
-      <c r="H14" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="I14" s="82" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="78" thickBot="1">
-      <c r="B15" s="95">
+      <c r="H14" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="I14" s="75" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="78.599999999999994" thickBot="1">
+      <c r="B15" s="88">
         <v>12</v>
       </c>
-      <c r="C15" s="78" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="79" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="98">
+      <c r="C15" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="91">
         <v>12</v>
       </c>
-      <c r="H15" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="I15" s="87" t="s">
-        <v>144</v>
+      <c r="H15" s="79" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" s="80" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="127.5" customHeight="1" thickBot="1">
-      <c r="B16" s="93">
+      <c r="B16" s="86">
         <v>13</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="G16" s="96">
+        <v>150</v>
+      </c>
+      <c r="G16" s="89">
         <v>13</v>
       </c>
-      <c r="H16" s="82" t="s">
-        <v>147</v>
-      </c>
-      <c r="I16" s="82" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="78" thickBot="1">
-      <c r="B17" s="93">
+      <c r="H16" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="I16" s="75" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="94.15" thickBot="1">
+      <c r="B17" s="86">
         <v>14</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="G17" s="96">
+        <v>154</v>
+      </c>
+      <c r="G17" s="89">
         <v>14</v>
       </c>
-      <c r="H17" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="I17" s="82" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="81.599999999999994" customHeight="1" thickBot="1">
+      <c r="H17" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="I17" s="75" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="81.400000000000006" customHeight="1" thickBot="1">
       <c r="B18" s="39"/>
       <c r="D18" s="3"/>
       <c r="G18" s="39"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="2:9" ht="15" thickBot="1">
-      <c r="B19" s="104" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="106"/>
-      <c r="G19" s="107" t="s">
-        <v>154</v>
-      </c>
-      <c r="H19" s="108"/>
-      <c r="I19" s="109"/>
-    </row>
-    <row r="20" spans="2:9" ht="37.5" thickBot="1">
-      <c r="B20" s="91" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="92" t="s">
-        <v>155</v>
-      </c>
-      <c r="G20" s="88" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="I20" s="89" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="47.1" thickBot="1">
-      <c r="B21" s="93">
+      <c r="B19" s="114" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="115"/>
+      <c r="D19" s="116"/>
+      <c r="G19" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="118"/>
+      <c r="I19" s="119"/>
+    </row>
+    <row r="20" spans="2:9" ht="36.6" thickBot="1">
+      <c r="B20" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="82" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="63" thickBot="1">
+      <c r="B21" s="86">
         <v>1</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="G21" s="99">
+        <v>161</v>
+      </c>
+      <c r="G21" s="92">
         <v>1</v>
       </c>
-      <c r="H21" s="90" t="s">
-        <v>158</v>
-      </c>
-      <c r="I21" s="90" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="78" thickBot="1">
-      <c r="B22" s="93">
+      <c r="H21" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="I21" s="83" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="78.599999999999994" thickBot="1">
+      <c r="B22" s="86">
         <v>2</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="G22" s="99">
+        <v>165</v>
+      </c>
+      <c r="G22" s="92">
         <v>2</v>
       </c>
-      <c r="H22" s="90" t="s">
-        <v>162</v>
-      </c>
-      <c r="I22" s="90" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="97.5" thickBot="1">
-      <c r="B23" s="93">
+      <c r="H22" s="83" t="s">
+        <v>166</v>
+      </c>
+      <c r="I22" s="83" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="97.9" thickBot="1">
+      <c r="B23" s="86">
         <v>3</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="G23" s="99">
+        <v>169</v>
+      </c>
+      <c r="G23" s="92">
         <v>3</v>
       </c>
-      <c r="H23" s="90" t="s">
-        <v>166</v>
-      </c>
-      <c r="I23" s="90" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="126.95" customHeight="1" thickBot="1">
-      <c r="B24" s="93">
+      <c r="H23" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="I23" s="83" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="127.15" customHeight="1" thickBot="1">
+      <c r="B24" s="86">
         <v>4</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="G24" s="99">
+        <v>173</v>
+      </c>
+      <c r="G24" s="92">
         <v>4</v>
       </c>
-      <c r="H24" s="90" t="s">
-        <v>170</v>
-      </c>
-      <c r="I24" s="90" t="s">
-        <v>171</v>
+      <c r="H24" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" s="83" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -6515,105 +7085,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90F23F0-CA0C-4EF0-B4FE-3975D3B21BD6}">
   <dimension ref="B2:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="15" thickBot="1"/>
     <row r="3" spans="2:4" ht="15" thickBot="1">
       <c r="B3" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15" thickBot="1">
       <c r="B4" s="10" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15" thickBot="1">
       <c r="B5" s="10" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="59" t="s">
-        <v>32</v>
+      <c r="B17" s="53" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -6631,11 +7203,11 @@
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5703125" customWidth="1"/>
     <col min="8" max="8" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -6643,214 +7215,214 @@
     <row r="1" spans="2:8" ht="15" thickBot="1"/>
     <row r="2" spans="2:8" ht="29.45" thickBot="1">
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15" thickBot="1">
       <c r="B3" s="10" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1">
       <c r="B4" s="9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="59" t="s">
-        <v>32</v>
+      <c r="B21" s="53" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -6861,229 +7433,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B1:D24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1"/>
-    <row r="2" spans="2:4" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="15" thickBot="1">
-      <c r="B3" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="15" thickBot="1">
-      <c r="B4" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" t="s">
-        <v>209</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="59" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:D29"/>
   <sheetViews>
@@ -7094,250 +7443,473 @@
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1"/>
     <row r="2" spans="2:4" ht="29.45" thickBot="1">
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15" thickBot="1">
       <c r="B3" s="10" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15" thickBot="1">
       <c r="B4" s="9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="14" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="14" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="14" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="14" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="14" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="14" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="14" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="14" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="14" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="14" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="14" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="14" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="14" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="59" t="s">
-        <v>32</v>
+      <c r="B27" s="53" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="B1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15" thickBot="1"/>
+    <row r="2" spans="2:4" ht="30.75" customHeight="1" thickBot="1">
+      <c r="B2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="15" thickBot="1">
+      <c r="B3" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15" thickBot="1">
+      <c r="B4" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="33" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="53" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -7352,12 +7924,12 @@
   <dimension ref="B1:P18"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D14" sqref="D14:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" customWidth="1"/>
     <col min="5" max="16" width="5.5703125" customWidth="1"/>
@@ -7366,179 +7938,179 @@
     <row r="1" spans="2:16" ht="15" thickBot="1"/>
     <row r="2" spans="2:16" ht="15" thickBot="1">
       <c r="B2" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="115"/>
+        <v>29</v>
+      </c>
+      <c r="D2" s="123" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="125"/>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1">
       <c r="B3" s="9" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="116" t="s">
-        <v>239</v>
-      </c>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="118"/>
+        <v>38</v>
+      </c>
+      <c r="D3" s="126" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="128"/>
     </row>
     <row r="4" spans="2:16" ht="15" thickBot="1">
       <c r="B4" s="9" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="116" t="s">
-        <v>241</v>
-      </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="118"/>
+        <v>38</v>
+      </c>
+      <c r="D4" s="126" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="128"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1">
       <c r="B5" s="7"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="119" t="s">
-        <v>242</v>
-      </c>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="121"/>
+      <c r="D5" s="129" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="131"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="C7" s="122" t="s">
-        <v>243</v>
-      </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
+      <c r="C7" s="132" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
     </row>
     <row r="8" spans="2:16" ht="15" thickBot="1">
-      <c r="C8" s="123" t="s">
-        <v>244</v>
-      </c>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
+      <c r="C8" s="133" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="133"/>
     </row>
     <row r="9" spans="2:16" ht="15" thickBot="1">
       <c r="B9" s="17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15" thickBot="1">
       <c r="B10" s="20" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D10" s="72">
+        <v>264</v>
+      </c>
+      <c r="D10" s="65">
         <v>99</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="65">
         <v>88</v>
       </c>
-      <c r="F10" s="72">
+      <c r="F10" s="65">
         <v>84</v>
       </c>
-      <c r="G10" s="72">
+      <c r="G10" s="65">
         <v>94</v>
       </c>
-      <c r="H10" s="72">
+      <c r="H10" s="65">
         <v>87</v>
       </c>
-      <c r="I10" s="72">
+      <c r="I10" s="65">
         <v>74</v>
       </c>
-      <c r="J10" s="72">
+      <c r="J10" s="65">
         <v>72</v>
       </c>
-      <c r="K10" s="72">
+      <c r="K10" s="65">
         <v>74</v>
       </c>
-      <c r="L10" s="72">
+      <c r="L10" s="65">
         <v>53</v>
       </c>
       <c r="M10" s="20">
@@ -7556,36 +8128,36 @@
     </row>
     <row r="11" spans="2:16" ht="15" thickBot="1">
       <c r="B11" s="20" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="D11" s="72">
+        <v>265</v>
+      </c>
+      <c r="D11" s="65">
         <v>641</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="65">
         <v>571</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F11" s="65">
         <v>549</v>
       </c>
-      <c r="G11" s="72">
+      <c r="G11" s="65">
         <v>521</v>
       </c>
-      <c r="H11" s="72">
+      <c r="H11" s="65">
         <v>499</v>
       </c>
-      <c r="I11" s="72">
+      <c r="I11" s="65">
         <v>458</v>
       </c>
-      <c r="J11" s="72">
+      <c r="J11" s="65">
         <v>431</v>
       </c>
-      <c r="K11" s="72">
+      <c r="K11" s="65">
         <v>427</v>
       </c>
-      <c r="L11" s="72">
+      <c r="L11" s="65">
         <v>416</v>
       </c>
       <c r="M11" s="20">
@@ -7603,10 +8175,10 @@
     </row>
     <row r="12" spans="2:16" ht="15" thickBot="1">
       <c r="B12" s="20" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D12" s="20">
         <v>15.4</v>
@@ -7617,7 +8189,7 @@
       <c r="F12" s="20">
         <v>15.3</v>
       </c>
-      <c r="G12" s="72">
+      <c r="G12" s="65">
         <v>18</v>
       </c>
       <c r="H12" s="20">
@@ -7649,28 +8221,28 @@
       </c>
     </row>
     <row r="13" spans="2:16" ht="15" thickBot="1">
-      <c r="B13" s="110"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="112"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="122"/>
     </row>
     <row r="14" spans="2:16" ht="15" thickBot="1">
       <c r="B14" s="20" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D14" s="20">
         <v>0</v>
@@ -7709,15 +8281,15 @@
         <v>0</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15" thickBot="1">
       <c r="B15" s="20" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D15" s="20">
         <v>0</v>
@@ -7756,59 +8328,59 @@
         <v>0</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15" thickBot="1">
       <c r="B16" s="20" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="N16" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="O16" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="59" t="s">
-        <v>32</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="26.45">
+      <c r="B18" s="53" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -8076,15 +8648,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E919274E-B1E5-44E4-B80C-4EE7385A1ADE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C53685C-8A96-4833-801D-64FB2AB52EB0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C970BC8-C7D0-4CA8-B93E-0D34DDF640B1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{424BEBCC-2BE8-45E3-9165-F852504562B5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11FA57A7-F82A-464A-A112-5685B0F11090}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1882077-3E01-4248-A212-55A801727517}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
